--- a/allFrambda20-3s_700.xlsx
+++ b/allFrambda20-3s_700.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0ba3ab8c13100321/デスクトップ/traffic-simulation-de/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_A8C8CA48F08E14446A6AFF335F0DFAF9D8DE25E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6BA35F0E-3CA0-441D-BE4C-331CB52A32FE}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="11_A8C8CA48F08E14446A6AFF335F0DFAF9D8DE25E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9EF79E36-34A1-4547-9730-5E6F2A396A81}"/>
   <bookViews>
-    <workbookView xWindow="3405" yWindow="6690" windowWidth="11445" windowHeight="8130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,18 @@
     <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
     <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1161,218 +1172,263 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="90"/>
+                <c:pt idx="4">
+                  <c:v>4.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3333333333333326</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.6666666666666661</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.6666666666666661</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.6666666666666661</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.6666666666666661</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.6666666666666661</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.6666666666666661</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.333333333333333</c:v>
+                </c:pt>
                 <c:pt idx="19">
-                  <c:v>18.333333333333329</c:v>
+                  <c:v>5.6666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>18.333333333333329</c:v>
+                  <c:v>5.6666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>18</c:v>
+                  <c:v>5.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>19</c:v>
+                  <c:v>5.6666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>19</c:v>
+                  <c:v>5.6666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>19.333333333333339</c:v>
+                  <c:v>5.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>20.333333333333339</c:v>
+                  <c:v>5.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>20.333333333333339</c:v>
+                  <c:v>5.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>21</c:v>
+                  <c:v>5.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>20.666666666666671</c:v>
+                  <c:v>5.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>21.333333333333329</c:v>
+                  <c:v>5.6666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>21.333333333333329</c:v>
+                  <c:v>5.6666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>22</c:v>
+                  <c:v>5.9999999999999991</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>22</c:v>
+                  <c:v>5.6666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>22</c:v>
+                  <c:v>5.6666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>21.666666666666661</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>21.666666666666661</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>21.666666666666661</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>21.333333333333329</c:v>
+                  <c:v>4.6666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>21.333333333333329</c:v>
+                  <c:v>4.6666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>20.666666666666671</c:v>
+                  <c:v>4.6666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>20.666666666666671</c:v>
+                  <c:v>4.6666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>20.666666666666671</c:v>
+                  <c:v>4.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>20.333333333333339</c:v>
+                  <c:v>4.6666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>20.666666666666671</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>20.333333333333329</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>20.666666666666671</c:v>
+                  <c:v>5.3333333333333321</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>20.333333333333329</c:v>
+                  <c:v>4.9999999999999991</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>19.666666666666661</c:v>
+                  <c:v>4.6666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>20</c:v>
+                  <c:v>4.6666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>19.333333333333329</c:v>
+                  <c:v>4.6666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>19.666666666666671</c:v>
+                  <c:v>4.6666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>19</c:v>
+                  <c:v>4.6666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>19.333333333333339</c:v>
+                  <c:v>5.3333333333333321</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>19</c:v>
+                  <c:v>4.6666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>19.333333333333329</c:v>
+                  <c:v>4.9999999999999991</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>19</c:v>
+                  <c:v>4.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>19</c:v>
+                  <c:v>4.9999999999999991</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>19</c:v>
+                  <c:v>4.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>19</c:v>
+                  <c:v>4.6666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>19.666666666666661</c:v>
+                  <c:v>4.9999999999999991</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>19.333333333333329</c:v>
+                  <c:v>4.9999999999999991</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>19.666666666666661</c:v>
+                  <c:v>4.9999999999999991</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>19.666666666666661</c:v>
+                  <c:v>5.3333333333333321</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>19.333333333333329</c:v>
+                  <c:v>5.3333333333333321</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>19.333333333333329</c:v>
+                  <c:v>4.6666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>18.666666666666671</c:v>
+                  <c:v>4.6666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>19.333333333333329</c:v>
+                  <c:v>4.6666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>19.333333333333339</c:v>
+                  <c:v>4.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>19.333333333333329</c:v>
+                  <c:v>4.6666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>19.666666666666671</c:v>
+                  <c:v>4.9999999999999991</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>19.666666666666661</c:v>
+                  <c:v>5.6666666666666652</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>20</c:v>
+                  <c:v>5.3333333333333321</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>20</c:v>
+                  <c:v>5.9999999999999991</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>20</c:v>
+                  <c:v>5.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>20.666666666666671</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>21.333333333333329</c:v>
+                  <c:v>5.9999999999999991</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>21.333333333333339</c:v>
+                  <c:v>6.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>22</c:v>
+                  <c:v>6.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>22</c:v>
+                  <c:v>6.6666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>21.666666666666671</c:v>
+                  <c:v>5.9999999999999991</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>22</c:v>
+                  <c:v>5.6666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>21.666666666666671</c:v>
+                  <c:v>5.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>22</c:v>
+                  <c:v>5.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>22</c:v>
+                  <c:v>5.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>22.333333333333329</c:v>
+                  <c:v>5.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>23</c:v>
+                  <c:v>5.6666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>22.666666666666661</c:v>
+                  <c:v>5.6666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>23.333333333333329</c:v>
+                  <c:v>5.6666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>23.333333333333329</c:v>
+                  <c:v>5.9999999999999991</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>23</c:v>
+                  <c:v>5.6666666666666661</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2571,218 +2627,263 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="90"/>
+                <c:pt idx="4">
+                  <c:v>4.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3333333333333326</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.6666666666666661</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.6666666666666661</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.6666666666666661</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.6666666666666661</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.6666666666666661</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.6666666666666661</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.333333333333333</c:v>
+                </c:pt>
                 <c:pt idx="19">
-                  <c:v>18.333333333333329</c:v>
+                  <c:v>5.6666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>18.333333333333329</c:v>
+                  <c:v>5.6666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>18</c:v>
+                  <c:v>5.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>19</c:v>
+                  <c:v>5.6666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>19</c:v>
+                  <c:v>5.6666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>19.333333333333339</c:v>
+                  <c:v>5.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>20.333333333333339</c:v>
+                  <c:v>5.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>20.333333333333339</c:v>
+                  <c:v>5.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>21</c:v>
+                  <c:v>5.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>20.666666666666671</c:v>
+                  <c:v>5.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>21.333333333333329</c:v>
+                  <c:v>5.6666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>21.333333333333329</c:v>
+                  <c:v>5.6666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>22</c:v>
+                  <c:v>5.9999999999999991</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>22</c:v>
+                  <c:v>5.6666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>22</c:v>
+                  <c:v>5.6666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>21.666666666666661</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>21.666666666666661</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>21.666666666666661</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>21.333333333333329</c:v>
+                  <c:v>4.6666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>21.333333333333329</c:v>
+                  <c:v>4.6666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>20.666666666666671</c:v>
+                  <c:v>4.6666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>20.666666666666671</c:v>
+                  <c:v>4.6666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>20.666666666666671</c:v>
+                  <c:v>4.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>20.333333333333339</c:v>
+                  <c:v>4.6666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>20.666666666666671</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>20.333333333333329</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>20.666666666666671</c:v>
+                  <c:v>5.3333333333333321</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>20.333333333333329</c:v>
+                  <c:v>4.9999999999999991</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>19.666666666666661</c:v>
+                  <c:v>4.6666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>20</c:v>
+                  <c:v>4.6666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>19.333333333333329</c:v>
+                  <c:v>4.6666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>19.666666666666671</c:v>
+                  <c:v>4.6666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>19</c:v>
+                  <c:v>4.6666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>19.333333333333339</c:v>
+                  <c:v>5.3333333333333321</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>19</c:v>
+                  <c:v>4.6666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>19.333333333333329</c:v>
+                  <c:v>4.9999999999999991</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>19</c:v>
+                  <c:v>4.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>19</c:v>
+                  <c:v>4.9999999999999991</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>19</c:v>
+                  <c:v>4.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>19</c:v>
+                  <c:v>4.6666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>19.666666666666661</c:v>
+                  <c:v>4.9999999999999991</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>19.333333333333329</c:v>
+                  <c:v>4.9999999999999991</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>19.666666666666661</c:v>
+                  <c:v>4.9999999999999991</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>19.666666666666661</c:v>
+                  <c:v>5.3333333333333321</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>19.333333333333329</c:v>
+                  <c:v>5.3333333333333321</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>19.333333333333329</c:v>
+                  <c:v>4.6666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>18.666666666666671</c:v>
+                  <c:v>4.6666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>19.333333333333329</c:v>
+                  <c:v>4.6666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>19.333333333333339</c:v>
+                  <c:v>4.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>19.333333333333329</c:v>
+                  <c:v>4.6666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>19.666666666666671</c:v>
+                  <c:v>4.9999999999999991</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>19.666666666666661</c:v>
+                  <c:v>5.6666666666666652</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>20</c:v>
+                  <c:v>5.3333333333333321</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>20</c:v>
+                  <c:v>5.9999999999999991</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>20</c:v>
+                  <c:v>5.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>20.666666666666671</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>21.333333333333329</c:v>
+                  <c:v>5.9999999999999991</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>21.333333333333339</c:v>
+                  <c:v>6.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>22</c:v>
+                  <c:v>6.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>22</c:v>
+                  <c:v>6.6666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>21.666666666666671</c:v>
+                  <c:v>5.9999999999999991</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>22</c:v>
+                  <c:v>5.6666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>21.666666666666671</c:v>
+                  <c:v>5.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>22</c:v>
+                  <c:v>5.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>22</c:v>
+                  <c:v>5.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>22.333333333333329</c:v>
+                  <c:v>5.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>23</c:v>
+                  <c:v>5.6666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>22.666666666666661</c:v>
+                  <c:v>5.6666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>23.333333333333329</c:v>
+                  <c:v>5.6666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>23.333333333333329</c:v>
+                  <c:v>5.9999999999999991</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>23</c:v>
+                  <c:v>5.6666666666666661</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4485,8 +4586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C16" activeCellId="2" sqref="D1:D1048576 A1:A1048576 C1:C1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4859,6 +4960,10 @@
       <c r="C6">
         <v>13</v>
       </c>
+      <c r="D6">
+        <f>SUM(B2:B6)</f>
+        <v>4.333333333333333</v>
+      </c>
       <c r="E6">
         <v>365.64140620904698</v>
       </c>
@@ -4930,6 +5035,10 @@
       <c r="C7">
         <v>16</v>
       </c>
+      <c r="D7">
+        <f t="shared" ref="D7:D70" si="0">SUM(B3:B7)</f>
+        <v>3.3333333333333326</v>
+      </c>
       <c r="E7">
         <v>362.37392034355668</v>
       </c>
@@ -5001,6 +5110,10 @@
       <c r="C8">
         <v>16</v>
       </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="E8">
         <v>362.87211332838649</v>
       </c>
@@ -5072,6 +5185,10 @@
       <c r="C9">
         <v>18</v>
       </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>3.333333333333333</v>
+      </c>
       <c r="E9">
         <v>357.75777287049442</v>
       </c>
@@ -5143,6 +5260,10 @@
       <c r="C10">
         <v>17</v>
       </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>3.6666666666666661</v>
+      </c>
       <c r="E10">
         <v>352.64343241260218</v>
       </c>
@@ -5214,6 +5335,10 @@
       <c r="C11">
         <v>19</v>
       </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>3.6666666666666661</v>
+      </c>
       <c r="E11">
         <v>345.70529480518292</v>
       </c>
@@ -5285,6 +5410,10 @@
       <c r="C12">
         <v>20</v>
       </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>4.6666666666666661</v>
+      </c>
       <c r="E12">
         <v>340.36153861342018</v>
       </c>
@@ -5356,6 +5485,10 @@
       <c r="C13">
         <v>21</v>
       </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>4.333333333333333</v>
+      </c>
       <c r="E13">
         <v>334.04445389487302</v>
       </c>
@@ -5427,6 +5560,10 @@
       <c r="C14">
         <v>20</v>
       </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>4.6666666666666661</v>
+      </c>
       <c r="E14">
         <v>334.7211723750471</v>
       </c>
@@ -5498,6 +5635,10 @@
       <c r="C15">
         <v>20</v>
       </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>4.333333333333333</v>
+      </c>
       <c r="E15">
         <v>339.30948705245822</v>
       </c>
@@ -5569,6 +5710,10 @@
       <c r="C16">
         <v>20</v>
       </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>4.6666666666666661</v>
+      </c>
       <c r="E16">
         <v>345.83968343066232</v>
       </c>
@@ -5640,6 +5785,10 @@
       <c r="C17">
         <v>21</v>
       </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>4.6666666666666661</v>
+      </c>
       <c r="E17">
         <v>349.28091943872079</v>
       </c>
@@ -5711,6 +5860,10 @@
       <c r="C18">
         <v>20</v>
       </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>5.333333333333333</v>
+      </c>
       <c r="E18">
         <v>347.73067489292941</v>
       </c>
@@ -5782,6 +5935,10 @@
       <c r="C19">
         <v>21</v>
       </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>5.333333333333333</v>
+      </c>
       <c r="E19">
         <v>343.5455260919569</v>
       </c>
@@ -5853,6 +6010,10 @@
       <c r="C20">
         <v>22</v>
       </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>5.333333333333333</v>
+      </c>
       <c r="E20">
         <v>340.26651150502931</v>
       </c>
@@ -5925,7 +6086,8 @@
         <v>21</v>
       </c>
       <c r="D21">
-        <v>18.333333333333329</v>
+        <f t="shared" si="0"/>
+        <v>5.6666666666666661</v>
       </c>
       <c r="E21">
         <v>335.31439246826801</v>
@@ -5999,7 +6161,8 @@
         <v>20</v>
       </c>
       <c r="D22">
-        <v>18.333333333333329</v>
+        <f t="shared" si="0"/>
+        <v>5.6666666666666661</v>
       </c>
       <c r="E22">
         <v>335.34222526391898</v>
@@ -6073,7 +6236,8 @@
         <v>21</v>
       </c>
       <c r="D23">
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>5.333333333333333</v>
       </c>
       <c r="E23">
         <v>342.85727889034501</v>
@@ -6147,7 +6311,8 @@
         <v>20</v>
       </c>
       <c r="D24">
-        <v>19</v>
+        <f t="shared" si="0"/>
+        <v>5.6666666666666661</v>
       </c>
       <c r="E24">
         <v>347.10962200405743</v>
@@ -6221,7 +6386,8 @@
         <v>21</v>
       </c>
       <c r="D25">
-        <v>19</v>
+        <f t="shared" si="0"/>
+        <v>5.6666666666666661</v>
       </c>
       <c r="E25">
         <v>343.31611035808629</v>
@@ -6295,7 +6461,8 @@
         <v>21</v>
       </c>
       <c r="D26">
-        <v>19.333333333333339</v>
+        <f t="shared" si="0"/>
+        <v>5.333333333333333</v>
       </c>
       <c r="E26">
         <v>341.34639586164218</v>
@@ -6369,7 +6536,8 @@
         <v>21</v>
       </c>
       <c r="D27">
-        <v>20.333333333333339</v>
+        <f t="shared" si="0"/>
+        <v>5.333333333333333</v>
       </c>
       <c r="E27">
         <v>346.88020627018682</v>
@@ -6443,7 +6611,8 @@
         <v>21</v>
       </c>
       <c r="D28">
-        <v>20.333333333333339</v>
+        <f t="shared" si="0"/>
+        <v>5.333333333333333</v>
       </c>
       <c r="E28">
         <v>350.84746805872612</v>
@@ -6517,7 +6686,8 @@
         <v>20</v>
       </c>
       <c r="D29">
-        <v>21</v>
+        <f t="shared" si="0"/>
+        <v>5.333333333333333</v>
       </c>
       <c r="E29">
         <v>356.63852699679251</v>
@@ -6591,7 +6761,8 @@
         <v>20</v>
       </c>
       <c r="D30">
-        <v>20.666666666666671</v>
+        <f t="shared" si="0"/>
+        <v>5.333333333333333</v>
       </c>
       <c r="E30">
         <v>358.83765722710712</v>
@@ -6665,7 +6836,8 @@
         <v>19</v>
       </c>
       <c r="D31">
-        <v>21.333333333333329</v>
+        <f t="shared" si="0"/>
+        <v>5.6666666666666661</v>
       </c>
       <c r="E31">
         <v>361.75286745468469</v>
@@ -6739,7 +6911,8 @@
         <v>19</v>
       </c>
       <c r="D32">
-        <v>21.333333333333329</v>
+        <f t="shared" si="0"/>
+        <v>5.6666666666666661</v>
       </c>
       <c r="E32">
         <v>364.2092462145211</v>
@@ -6813,7 +6986,8 @@
         <v>18</v>
       </c>
       <c r="D33">
-        <v>22</v>
+        <f t="shared" si="0"/>
+        <v>5.9999999999999991</v>
       </c>
       <c r="E33">
         <v>363.291583279039</v>
@@ -6887,7 +7061,8 @@
         <v>18</v>
       </c>
       <c r="D34">
-        <v>22</v>
+        <f t="shared" si="0"/>
+        <v>5.6666666666666661</v>
       </c>
       <c r="E34">
         <v>355.69303126565927</v>
@@ -6961,7 +7136,8 @@
         <v>17</v>
       </c>
       <c r="D35">
-        <v>22</v>
+        <f t="shared" si="0"/>
+        <v>5.6666666666666661</v>
       </c>
       <c r="E35">
         <v>351.83232530694841</v>
@@ -7035,7 +7211,8 @@
         <v>19</v>
       </c>
       <c r="D36">
-        <v>21.666666666666661</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="E36">
         <v>339.51106999067792</v>
@@ -7109,7 +7286,8 @@
         <v>19</v>
       </c>
       <c r="D37">
-        <v>21.666666666666661</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="E37">
         <v>329.6461934342438</v>
@@ -7183,7 +7361,8 @@
         <v>19</v>
       </c>
       <c r="D38">
-        <v>21.666666666666661</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="E38">
         <v>322.66869430973583</v>
@@ -7257,7 +7436,8 @@
         <v>18</v>
       </c>
       <c r="D39">
-        <v>21.333333333333329</v>
+        <f t="shared" si="0"/>
+        <v>4.6666666666666661</v>
       </c>
       <c r="E39">
         <v>320.76617412603139</v>
@@ -7331,7 +7511,8 @@
         <v>19</v>
       </c>
       <c r="D40">
-        <v>21.333333333333329</v>
+        <f t="shared" si="0"/>
+        <v>4.6666666666666661</v>
       </c>
       <c r="E40">
         <v>335.55533692357551</v>
@@ -7405,7 +7586,8 @@
         <v>19</v>
       </c>
       <c r="D41">
-        <v>20.666666666666671</v>
+        <f t="shared" si="0"/>
+        <v>4.6666666666666661</v>
       </c>
       <c r="E41">
         <v>338.56557425954412</v>
@@ -7479,7 +7661,8 @@
         <v>20</v>
       </c>
       <c r="D42">
-        <v>20.666666666666671</v>
+        <f t="shared" si="0"/>
+        <v>4.6666666666666661</v>
       </c>
       <c r="E42">
         <v>334.15100972470151</v>
@@ -7553,7 +7736,8 @@
         <v>20</v>
       </c>
       <c r="D43">
-        <v>20.666666666666671</v>
+        <f t="shared" si="0"/>
+        <v>4.333333333333333</v>
       </c>
       <c r="E43">
         <v>331.6831022434277</v>
@@ -7627,7 +7811,8 @@
         <v>20</v>
       </c>
       <c r="D44">
-        <v>20.333333333333339</v>
+        <f t="shared" si="0"/>
+        <v>4.6666666666666661</v>
       </c>
       <c r="E44">
         <v>324.50402018070048</v>
@@ -7701,7 +7886,8 @@
         <v>19</v>
       </c>
       <c r="D45">
-        <v>20.666666666666671</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="E45">
         <v>312.66465377504568</v>
@@ -7775,7 +7961,8 @@
         <v>21</v>
       </c>
       <c r="D46">
-        <v>20.333333333333329</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="E46">
         <v>305.84937607166881</v>
@@ -7849,7 +8036,8 @@
         <v>21</v>
       </c>
       <c r="D47">
-        <v>20.666666666666671</v>
+        <f t="shared" si="0"/>
+        <v>5.3333333333333321</v>
       </c>
       <c r="E47">
         <v>299.1963197894226</v>
@@ -7923,7 +8111,8 @@
         <v>22</v>
       </c>
       <c r="D48">
-        <v>20.333333333333329</v>
+        <f t="shared" si="0"/>
+        <v>4.9999999999999991</v>
       </c>
       <c r="E48">
         <v>298.3736839623312</v>
@@ -7997,7 +8186,8 @@
         <v>23</v>
       </c>
       <c r="D49">
-        <v>19.666666666666661</v>
+        <f t="shared" si="0"/>
+        <v>4.6666666666666661</v>
       </c>
       <c r="E49">
         <v>288.56447299719952</v>
@@ -8071,7 +8261,8 @@
         <v>22</v>
       </c>
       <c r="D50">
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>4.6666666666666661</v>
       </c>
       <c r="E50">
         <v>286.76850864332351</v>
@@ -8145,7 +8336,8 @@
         <v>24</v>
       </c>
       <c r="D51">
-        <v>19.333333333333329</v>
+        <f t="shared" si="0"/>
+        <v>4.6666666666666661</v>
       </c>
       <c r="E51">
         <v>286.21465006719109</v>
@@ -8219,7 +8411,8 @@
         <v>23</v>
       </c>
       <c r="D52">
-        <v>19.666666666666671</v>
+        <f t="shared" si="0"/>
+        <v>4.6666666666666661</v>
       </c>
       <c r="E52">
         <v>292.15162635217439</v>
@@ -8293,7 +8486,8 @@
         <v>24</v>
       </c>
       <c r="D53">
-        <v>19</v>
+        <f t="shared" si="0"/>
+        <v>4.6666666666666661</v>
       </c>
       <c r="E53">
         <v>295.66005667297259</v>
@@ -8367,7 +8561,8 @@
         <v>23</v>
       </c>
       <c r="D54">
-        <v>19.333333333333339</v>
+        <f t="shared" si="0"/>
+        <v>5.3333333333333321</v>
       </c>
       <c r="E54">
         <v>301.75925437908671</v>
@@ -8441,7 +8636,8 @@
         <v>24</v>
       </c>
       <c r="D55">
-        <v>19</v>
+        <f t="shared" si="0"/>
+        <v>4.6666666666666661</v>
       </c>
       <c r="E55">
         <v>305.42990612101568</v>
@@ -8515,7 +8711,8 @@
         <v>24</v>
       </c>
       <c r="D56">
-        <v>19.333333333333329</v>
+        <f t="shared" si="0"/>
+        <v>4.9999999999999991</v>
       </c>
       <c r="E56">
         <v>312.11079519891331</v>
@@ -8589,7 +8786,8 @@
         <v>26</v>
       </c>
       <c r="D57">
-        <v>19</v>
+        <f t="shared" si="0"/>
+        <v>4.333333333333333</v>
       </c>
       <c r="E57">
         <v>324.20263478131318</v>
@@ -8663,7 +8861,8 @@
         <v>25</v>
       </c>
       <c r="D58">
-        <v>19</v>
+        <f t="shared" si="0"/>
+        <v>4.9999999999999991</v>
       </c>
       <c r="E58">
         <v>321.51684028760639</v>
@@ -8737,7 +8936,8 @@
         <v>26</v>
       </c>
       <c r="D59">
-        <v>19</v>
+        <f t="shared" si="0"/>
+        <v>4.333333333333333</v>
       </c>
       <c r="E59">
         <v>311.94857377778288</v>
@@ -8811,7 +9011,8 @@
         <v>27</v>
       </c>
       <c r="D60">
-        <v>19</v>
+        <f t="shared" si="0"/>
+        <v>4.6666666666666661</v>
       </c>
       <c r="E60">
         <v>304.93171313618637</v>
@@ -8885,7 +9086,8 @@
         <v>26</v>
       </c>
       <c r="D61">
-        <v>19.666666666666661</v>
+        <f t="shared" si="0"/>
+        <v>4.9999999999999991</v>
       </c>
       <c r="E61">
         <v>304.33849304296552</v>
@@ -8959,7 +9161,8 @@
         <v>28</v>
       </c>
       <c r="D62">
-        <v>19.333333333333329</v>
+        <f t="shared" si="0"/>
+        <v>4.9999999999999991</v>
       </c>
       <c r="E62">
         <v>303.65024584135392</v>
@@ -9033,7 +9236,8 @@
         <v>26</v>
       </c>
       <c r="D63">
-        <v>19.666666666666661</v>
+        <f t="shared" si="0"/>
+        <v>4.9999999999999991</v>
       </c>
       <c r="E63">
         <v>302.59819428039179</v>
@@ -9107,7 +9311,8 @@
         <v>27</v>
       </c>
       <c r="D64">
-        <v>19.666666666666661</v>
+        <f t="shared" si="0"/>
+        <v>5.3333333333333321</v>
       </c>
       <c r="E64">
         <v>310.10171918538032</v>
@@ -9181,7 +9386,8 @@
         <v>26</v>
       </c>
       <c r="D65">
-        <v>19.333333333333329</v>
+        <f t="shared" si="0"/>
+        <v>5.3333333333333321</v>
       </c>
       <c r="E65">
         <v>312.43523804117439</v>
@@ -9255,7 +9461,8 @@
         <v>26</v>
       </c>
       <c r="D66">
-        <v>19.333333333333329</v>
+        <f t="shared" si="0"/>
+        <v>4.6666666666666661</v>
       </c>
       <c r="E66">
         <v>319.58648730825053</v>
@@ -9329,7 +9536,8 @@
         <v>26</v>
       </c>
       <c r="D67">
-        <v>18.666666666666671</v>
+        <f t="shared" si="0"/>
+        <v>4.6666666666666661</v>
       </c>
       <c r="E67">
         <v>331.35388404838909</v>
@@ -9403,7 +9611,8 @@
         <v>24</v>
       </c>
       <c r="D68">
-        <v>19.333333333333329</v>
+        <f t="shared" si="0"/>
+        <v>4.6666666666666661</v>
       </c>
       <c r="E68">
         <v>326.75404064954108</v>
@@ -9477,7 +9686,8 @@
         <v>25</v>
       </c>
       <c r="D69">
-        <v>19.333333333333339</v>
+        <f t="shared" si="0"/>
+        <v>4.333333333333333</v>
       </c>
       <c r="E69">
         <v>328.6056705947193</v>
@@ -9551,7 +9761,8 @@
         <v>26</v>
       </c>
       <c r="D70">
-        <v>19.333333333333329</v>
+        <f t="shared" si="0"/>
+        <v>4.6666666666666661</v>
       </c>
       <c r="E70">
         <v>315.31108675166422</v>
@@ -9625,7 +9836,8 @@
         <v>26</v>
       </c>
       <c r="D71">
-        <v>19.666666666666671</v>
+        <f t="shared" ref="D71:D91" si="1">SUM(B67:B71)</f>
+        <v>4.9999999999999991</v>
       </c>
       <c r="E71">
         <v>301.32825570699742</v>
@@ -9699,7 +9911,8 @@
         <v>27</v>
       </c>
       <c r="D72">
-        <v>19.666666666666661</v>
+        <f t="shared" si="1"/>
+        <v>5.6666666666666652</v>
       </c>
       <c r="E72">
         <v>294.44578369088077</v>
@@ -9773,7 +9986,8 @@
         <v>28</v>
       </c>
       <c r="D73">
-        <v>20</v>
+        <f t="shared" si="1"/>
+        <v>5.3333333333333321</v>
       </c>
       <c r="E73">
         <v>283.75827130735507</v>
@@ -9847,7 +10061,8 @@
         <v>26</v>
       </c>
       <c r="D74">
-        <v>20</v>
+        <f t="shared" si="1"/>
+        <v>5.9999999999999991</v>
       </c>
       <c r="E74">
         <v>275.60586071784331</v>
@@ -9921,7 +10136,8 @@
         <v>28</v>
       </c>
       <c r="D75">
-        <v>20</v>
+        <f t="shared" si="1"/>
+        <v>5.333333333333333</v>
       </c>
       <c r="E75">
         <v>269.47883021607788</v>
@@ -9995,7 +10211,8 @@
         <v>26</v>
       </c>
       <c r="D76">
-        <v>20.666666666666671</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="E76">
         <v>268.72338870172632</v>
@@ -10069,7 +10286,8 @@
         <v>25</v>
       </c>
       <c r="D77">
-        <v>21.333333333333329</v>
+        <f t="shared" si="1"/>
+        <v>5.9999999999999991</v>
       </c>
       <c r="E77">
         <v>278.09007227333041</v>
@@ -10143,7 +10361,8 @@
         <v>25</v>
       </c>
       <c r="D78">
-        <v>21.333333333333339</v>
+        <f t="shared" si="1"/>
+        <v>6.333333333333333</v>
       </c>
       <c r="E78">
         <v>289.26424892024812</v>
@@ -10217,7 +10436,8 @@
         <v>25</v>
       </c>
       <c r="D79">
-        <v>22</v>
+        <f t="shared" si="1"/>
+        <v>6.333333333333333</v>
       </c>
       <c r="E79">
         <v>305.29551749553599</v>
@@ -10291,7 +10511,8 @@
         <v>25</v>
       </c>
       <c r="D80">
-        <v>22</v>
+        <f t="shared" si="1"/>
+        <v>6.6666666666666661</v>
       </c>
       <c r="E80">
         <v>316.20091689149473</v>
@@ -10365,7 +10586,8 @@
         <v>24</v>
       </c>
       <c r="D81">
-        <v>21.666666666666671</v>
+        <f t="shared" si="1"/>
+        <v>5.9999999999999991</v>
       </c>
       <c r="E81">
         <v>329.27761372211688</v>
@@ -10439,7 +10661,8 @@
         <v>25</v>
       </c>
       <c r="D82">
-        <v>22</v>
+        <f t="shared" si="1"/>
+        <v>5.6666666666666661</v>
       </c>
       <c r="E82">
         <v>336.93183132679889</v>
@@ -10513,7 +10736,8 @@
         <v>25</v>
       </c>
       <c r="D83">
-        <v>21.666666666666671</v>
+        <f t="shared" si="1"/>
+        <v>5.333333333333333</v>
       </c>
       <c r="E83">
         <v>346.31004361984083</v>
@@ -10587,7 +10811,8 @@
         <v>24</v>
       </c>
       <c r="D84">
-        <v>22</v>
+        <f t="shared" si="1"/>
+        <v>5.333333333333333</v>
       </c>
       <c r="E84">
         <v>343.35547187517483</v>
@@ -10661,7 +10886,8 @@
         <v>25</v>
       </c>
       <c r="D85">
-        <v>22</v>
+        <f t="shared" si="1"/>
+        <v>5.333333333333333</v>
       </c>
       <c r="E85">
         <v>340.5352887559884</v>
@@ -10735,7 +10961,8 @@
         <v>25</v>
       </c>
       <c r="D86">
-        <v>22.333333333333329</v>
+        <f t="shared" si="1"/>
+        <v>5.333333333333333</v>
       </c>
       <c r="E86">
         <v>334.57047967535391</v>
@@ -10809,7 +11036,8 @@
         <v>25</v>
       </c>
       <c r="D87">
-        <v>23</v>
+        <f t="shared" si="1"/>
+        <v>5.6666666666666661</v>
       </c>
       <c r="E87">
         <v>328.95794623263203</v>
@@ -10883,7 +11111,8 @@
         <v>26</v>
       </c>
       <c r="D88">
-        <v>22.666666666666661</v>
+        <f t="shared" si="1"/>
+        <v>5.6666666666666661</v>
       </c>
       <c r="E88">
         <v>329.13169637520002</v>
@@ -10957,7 +11186,8 @@
         <v>24</v>
       </c>
       <c r="D89">
-        <v>23.333333333333329</v>
+        <f t="shared" si="1"/>
+        <v>5.6666666666666661</v>
       </c>
       <c r="E89">
         <v>324.80063022731059</v>
@@ -11031,7 +11261,8 @@
         <v>23</v>
       </c>
       <c r="D90">
-        <v>23.333333333333329</v>
+        <f t="shared" si="1"/>
+        <v>5.9999999999999991</v>
       </c>
       <c r="E90">
         <v>325.69046036714161</v>
@@ -11105,7 +11336,8 @@
         <v>25</v>
       </c>
       <c r="D91">
-        <v>23</v>
+        <f t="shared" si="1"/>
+        <v>5.6666666666666661</v>
       </c>
       <c r="E91">
         <v>336.46147113762032</v>
